--- a/model_inputs/financial_reports/clinical/FHA.xlsx
+++ b/model_inputs/financial_reports/clinical/FHA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84524928-2AC7-4E58-88C0-1917F9F5C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,17 @@
     <sheet name="BME_FCH" sheetId="25" r:id="rId13"/>
     <sheet name="BME_POC" sheetId="26" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
@@ -299,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -334,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -559,11 +604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +666,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>47633.3</v>
       </c>
       <c r="C2" s="8">
@@ -633,7 +678,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>47558</v>
       </c>
       <c r="H2" s="8">
@@ -650,7 +695,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>53259.31</v>
       </c>
       <c r="C3" s="8">
@@ -662,7 +707,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>49408</v>
       </c>
       <c r="H3" s="8">
@@ -854,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +961,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>147799.16999999998</v>
       </c>
       <c r="C2" s="8">
@@ -928,7 +973,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>128462</v>
       </c>
       <c r="H2" s="8">
@@ -945,7 +990,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>169082.83000000002</v>
       </c>
       <c r="C3" s="8">
@@ -957,7 +1002,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>133365</v>
       </c>
       <c r="H3" s="8">
@@ -1149,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1256,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>243911.78999999998</v>
       </c>
       <c r="C2" s="8">
@@ -1223,7 +1268,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>243665</v>
       </c>
       <c r="H2" s="8">
@@ -1240,7 +1285,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>290885.04000000004</v>
       </c>
       <c r="C3" s="8">
@@ -1252,7 +1297,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>288801</v>
       </c>
       <c r="H3" s="8">
@@ -1444,11 +1489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1551,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>14530.6</v>
       </c>
       <c r="C2" s="8">
@@ -1518,7 +1563,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>14530.6</v>
       </c>
       <c r="H2" s="8">
@@ -1535,7 +1580,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>15099</v>
       </c>
       <c r="C3" s="8">
@@ -1547,7 +1592,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>15099</v>
       </c>
       <c r="H3" s="8">
@@ -1739,11 +1784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1846,7 @@
         <v>1213</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>387445.54</v>
       </c>
       <c r="C2" s="8">
@@ -1813,7 +1858,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>362364</v>
       </c>
       <c r="H2" s="8">
@@ -1830,7 +1875,7 @@
         <v>1313</v>
       </c>
       <c r="B3" s="7">
-        <f>C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B10" si="0">C3-D3</f>
         <v>332053.07000000007</v>
       </c>
       <c r="C3" s="8">
@@ -1842,7 +1887,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f>H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G10" si="1">H3-I3</f>
         <v>1297235</v>
       </c>
       <c r="H3" s="8">
@@ -1859,7 +1904,7 @@
         <v>1413</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" ref="B4:B10" si="0">C4-D4-E4-F4</f>
+        <f t="shared" si="0"/>
         <v>268115.15000000002</v>
       </c>
       <c r="C4" s="8">
@@ -1871,7 +1916,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G10" si="1">H4-I4-J4-K4</f>
+        <f t="shared" si="1"/>
         <v>1005688</v>
       </c>
       <c r="H4" s="8">
@@ -2063,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2180,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>109698.68999999997</v>
       </c>
       <c r="C2" s="8">
@@ -2147,7 +2192,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>118808</v>
       </c>
       <c r="H2" s="8">
@@ -2164,7 +2209,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>140388.09999999998</v>
       </c>
       <c r="C3" s="8">
@@ -2176,7 +2221,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>123294</v>
       </c>
       <c r="H3" s="8">
@@ -2385,11 +2430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2492,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>478500.73</v>
       </c>
       <c r="C2" s="8">
@@ -2459,7 +2504,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>480223</v>
       </c>
       <c r="H2" s="8">
@@ -2476,7 +2521,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>563516.02000000014</v>
       </c>
       <c r="C3" s="8">
@@ -2488,7 +2533,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>496876</v>
       </c>
       <c r="H3" s="8">
@@ -2680,11 +2725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2787,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>84318.270000000019</v>
       </c>
       <c r="C2" s="8">
@@ -2754,7 +2799,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>81874</v>
       </c>
       <c r="H2" s="8">
@@ -2771,7 +2816,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>96079.62</v>
       </c>
       <c r="C3" s="8">
@@ -2783,7 +2828,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>86951</v>
       </c>
       <c r="H3" s="8">
@@ -2975,11 +3020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,7 +3082,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>197744.12999999998</v>
       </c>
       <c r="C2" s="8">
@@ -3049,7 +3094,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>89211</v>
       </c>
       <c r="H2" s="8">
@@ -3066,7 +3111,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>217908.21999999997</v>
       </c>
       <c r="C3" s="8">
@@ -3078,7 +3123,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>94680</v>
       </c>
       <c r="H3" s="8">
@@ -3270,11 +3315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,7 +3377,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>175119.77000000002</v>
       </c>
       <c r="C2" s="8">
@@ -3344,7 +3389,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>195758</v>
       </c>
       <c r="H2" s="8">
@@ -3361,7 +3406,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>210431.43000000005</v>
       </c>
       <c r="C3" s="8">
@@ -3373,7 +3418,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>203283</v>
       </c>
       <c r="H3" s="8">
@@ -3565,11 +3610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,7 +3672,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>410553.62999999989</v>
       </c>
       <c r="C2" s="8">
@@ -3639,7 +3684,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>400790</v>
       </c>
       <c r="H2" s="8">
@@ -3656,7 +3701,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>493571.49</v>
       </c>
       <c r="C3" s="8">
@@ -3668,7 +3713,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>386401.25</v>
       </c>
       <c r="H3" s="8">
@@ -3860,11 +3905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,7 +3967,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>65624.61</v>
       </c>
       <c r="C2" s="8">
@@ -3934,7 +3979,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>61119</v>
       </c>
       <c r="H2" s="8">
@@ -3951,7 +3996,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>80750.929999999993</v>
       </c>
       <c r="C3" s="8">
@@ -3963,7 +4008,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>63386</v>
       </c>
       <c r="H3" s="8">
@@ -4155,11 +4200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4262,7 @@
         <v>1313</v>
       </c>
       <c r="B2" s="7">
-        <f>C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>214791.89</v>
       </c>
       <c r="C2" s="8">
@@ -4229,7 +4274,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
-        <f>H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>133003</v>
       </c>
       <c r="H2" s="8">
@@ -4246,7 +4291,7 @@
         <v>1413</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B9" si="0">C3-D3-E3-F3</f>
+        <f t="shared" ref="B3:B9" si="0">C3-D3</f>
         <v>267623.44999999995</v>
       </c>
       <c r="C3" s="8">
@@ -4258,7 +4303,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="1">H3-I3-J3-K3</f>
+        <f t="shared" ref="G3:G9" si="1">H3-I3</f>
         <v>144540</v>
       </c>
       <c r="H3" s="8">

--- a/model_inputs/financial_reports/clinical/FHA.xlsx
+++ b/model_inputs/financial_reports/clinical/FHA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84524928-2AC7-4E58-88C0-1917F9F5C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3462E41-5258-416B-BB04-1286B510C831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="BME_PAH" sheetId="21" r:id="rId9"/>
     <sheet name="BME_MMH" sheetId="22" r:id="rId10"/>
     <sheet name="BME_CGH" sheetId="23" r:id="rId11"/>
-    <sheet name="BME_ARH" sheetId="24" r:id="rId12"/>
-    <sheet name="BME_FCH" sheetId="25" r:id="rId13"/>
+    <sheet name="BME_FCH" sheetId="25" r:id="rId12"/>
+    <sheet name="BME_ARH" sheetId="24" r:id="rId13"/>
     <sheet name="BME_POC" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="B2" s="7">
         <f>C2-D2</f>
-        <v>243911.78999999998</v>
+        <v>14530.6</v>
       </c>
       <c r="C2" s="8">
-        <v>730216.95</v>
+        <v>14530.6</v>
       </c>
       <c r="D2" s="8">
-        <v>486305.16</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
         <f>H2-I2</f>
-        <v>243665</v>
+        <v>14530.6</v>
       </c>
       <c r="H2" s="8">
-        <v>702616</v>
+        <v>14530.6</v>
       </c>
       <c r="I2" s="8">
-        <v>458951</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1286,25 +1286,25 @@
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B9" si="0">C3-D3</f>
-        <v>290885.04000000004</v>
+        <v>15099</v>
       </c>
       <c r="C3" s="8">
-        <v>802872.04</v>
+        <v>15099</v>
       </c>
       <c r="D3" s="8">
-        <v>511987</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G9" si="1">H3-I3</f>
-        <v>288801</v>
+        <v>15099</v>
       </c>
       <c r="H3" s="8">
-        <v>764507</v>
+        <v>15099</v>
       </c>
       <c r="I3" s="8">
-        <v>475706</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="B4" s="7">
         <f t="shared" si="0"/>
-        <v>341611.9</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>864793.9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>523182</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>294002</v>
+        <v>9291</v>
       </c>
       <c r="H4" s="8">
-        <v>801004</v>
+        <v>9291</v>
       </c>
       <c r="I4" s="8">
-        <v>507002</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1344,25 +1344,25 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
-        <v>310428.33999999997</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>805475.34</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>495047</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>294002</v>
+        <v>9291</v>
       </c>
       <c r="H5" s="8">
-        <v>807744</v>
+        <v>9291</v>
       </c>
       <c r="I5" s="8">
-        <v>513742</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1373,25 +1373,25 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
-        <v>241088.22999999998</v>
+        <v>880.7</v>
       </c>
       <c r="C6" s="8">
-        <v>776746.23</v>
+        <v>880.7</v>
       </c>
       <c r="D6" s="8">
-        <v>535658</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>295834</v>
+        <v>9291</v>
       </c>
       <c r="H6" s="8">
-        <v>816680</v>
+        <v>9291</v>
       </c>
       <c r="I6" s="8">
-        <v>520846</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1402,25 +1402,25 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
-        <v>314006.87</v>
+        <v>992.22</v>
       </c>
       <c r="C7" s="8">
-        <v>838982.87</v>
+        <v>992.22</v>
       </c>
       <c r="D7" s="8">
-        <v>524976</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>294600</v>
+        <v>9291</v>
       </c>
       <c r="H7" s="8">
-        <v>823987</v>
+        <v>9291</v>
       </c>
       <c r="I7" s="8">
-        <v>529387</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1431,25 +1431,25 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>307905.68999999994</v>
+        <v>3995.97</v>
       </c>
       <c r="C8" s="8">
-        <v>909981.69</v>
+        <v>3995.97</v>
       </c>
       <c r="D8" s="8">
-        <v>602076</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>332201</v>
+        <v>9291</v>
       </c>
       <c r="H8" s="8">
-        <v>874334</v>
+        <v>9291</v>
       </c>
       <c r="I8" s="8">
-        <v>542133</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1460,25 +1460,25 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>279547.5</v>
+        <v>10556.2</v>
       </c>
       <c r="C9" s="8">
-        <v>930654.5</v>
+        <v>10556.2</v>
       </c>
       <c r="D9" s="8">
-        <v>651107</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>331727</v>
+        <v>9291</v>
       </c>
       <c r="H9" s="8">
-        <v>995347</v>
+        <v>9291</v>
       </c>
       <c r="I9" s="8">
-        <v>663620</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1489,11 +1489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,25 +1552,25 @@
       </c>
       <c r="B2" s="7">
         <f>C2-D2</f>
-        <v>14530.6</v>
+        <v>243911.78999999998</v>
       </c>
       <c r="C2" s="8">
-        <v>14530.6</v>
+        <v>730216.95</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>486305.16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
         <f>H2-I2</f>
-        <v>14530.6</v>
+        <v>243665</v>
       </c>
       <c r="H2" s="8">
-        <v>14530.6</v>
+        <v>702616</v>
       </c>
       <c r="I2" s="8">
-        <v>0</v>
+        <v>458951</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1581,25 +1581,25 @@
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B9" si="0">C3-D3</f>
-        <v>15099</v>
+        <v>290885.04000000004</v>
       </c>
       <c r="C3" s="8">
-        <v>15099</v>
+        <v>802872.04</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
+        <v>511987</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G9" si="1">H3-I3</f>
-        <v>15099</v>
+        <v>288801</v>
       </c>
       <c r="H3" s="8">
-        <v>15099</v>
+        <v>764507</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>475706</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1610,25 +1610,25 @@
       </c>
       <c r="B4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>341611.9</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>864793.9</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>523182</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>294002</v>
       </c>
       <c r="H4" s="8">
-        <v>9291</v>
+        <v>801004</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>507002</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1639,25 +1639,25 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>310428.33999999997</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>805475.34</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>495047</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>294002</v>
       </c>
       <c r="H5" s="8">
-        <v>9291</v>
+        <v>807744</v>
       </c>
       <c r="I5" s="8">
-        <v>0</v>
+        <v>513742</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1668,25 +1668,25 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
-        <v>880.7</v>
+        <v>241088.22999999998</v>
       </c>
       <c r="C6" s="8">
-        <v>880.7</v>
+        <v>776746.23</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>535658</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>295834</v>
       </c>
       <c r="H6" s="8">
-        <v>9291</v>
+        <v>816680</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
+        <v>520846</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1697,25 +1697,25 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
-        <v>992.22</v>
+        <v>314006.87</v>
       </c>
       <c r="C7" s="8">
-        <v>992.22</v>
+        <v>838982.87</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>524976</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>294600</v>
       </c>
       <c r="H7" s="8">
-        <v>9291</v>
+        <v>823987</v>
       </c>
       <c r="I7" s="8">
-        <v>0</v>
+        <v>529387</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1726,25 +1726,25 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>3995.97</v>
+        <v>307905.68999999994</v>
       </c>
       <c r="C8" s="8">
-        <v>3995.97</v>
+        <v>909981.69</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>602076</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>332201</v>
       </c>
       <c r="H8" s="8">
-        <v>9291</v>
+        <v>874334</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>542133</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1755,25 +1755,25 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>10556.2</v>
+        <v>279547.5</v>
       </c>
       <c r="C9" s="8">
-        <v>10556.2</v>
+        <v>930654.5</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>651107</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>9291</v>
+        <v>331727</v>
       </c>
       <c r="H9" s="8">
-        <v>9291</v>
+        <v>995347</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>663620</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,7 +3614,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3909,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4204,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
